--- a/2em/2DES/01-bcd/aula10/exercicios/exercicio1_clientes.xlsx
+++ b/2em/2DES/01-bcd/aula10/exercicios/exercicio1_clientes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2024\2em\2DES\01-bcd\aula10\exercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5139F8EE-F615-4644-826D-446ADC991C65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dados_brutos" sheetId="1" r:id="rId1"/>
@@ -19,16 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -106,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -474,23 +465,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -530,7 +521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -550,7 +541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -570,7 +561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -590,7 +581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -610,7 +601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
